--- a/Modelagens/Modelagem_Fisica.xlsx
+++ b/Modelagens/Modelagem_Fisica.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://votorantimindustrial-my.sharepoint.com/personal/fabio_albuquerque_nexaresources_com/Documents/Documentos/Pessoal/Trabalhos-Gu/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HD\SENAI-2ºT\projetoSP\Projeto_SP_Med.Group\Modelagens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{343A3104-4B8A-46B0-821F-46554D367FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE1F1B6-3161-4C8F-8DA5-F6CF8CF182B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C252473-C303-4945-BF54-DB4DCD554A60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{5C252473-C303-4945-BF54-DB4DCD554A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -297,9 +297,6 @@
     <t>paciente</t>
   </si>
   <si>
-    <t>dataNasimento</t>
-  </si>
-  <si>
     <t>CPF</t>
   </si>
   <si>
@@ -391,6 +388,9 @@
   </si>
   <si>
     <t>Remota</t>
+  </si>
+  <si>
+    <t>dataNascimento</t>
   </si>
 </sst>
 </file>
@@ -729,9 +729,6 @@
   <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -741,18 +738,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -771,15 +762,9 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -792,15 +777,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -828,16 +804,10 @@
     <xf numFmtId="0" fontId="1" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -851,6 +821,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1181,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF81C32B-D240-428D-825C-0E539ECB7E3C}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="119" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,30 +1200,30 @@
     <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="78.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="52.44140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="6"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -1231,33 +1231,33 @@
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="1"/>
@@ -1267,33 +1267,33 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>1</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="11">
+      <c r="G3" s="8">
         <v>1</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="9" t="s">
         <v>20</v>
       </c>
       <c r="L3" s="1"/>
@@ -1303,17 +1303,17 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="8">
-        <v>2</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="6">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="1"/>
@@ -1329,17 +1329,17 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>3</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="1"/>
@@ -1355,11 +1355,11 @@
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1373,402 +1373,402 @@
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="38" t="s">
+      <c r="J7" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="15" t="s">
         <v>50</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="M8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="N8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="O8" s="10" t="s">
         <v>2</v>
       </c>
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="12">
         <v>1</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="21">
+      <c r="D9" s="16">
         <v>1</v>
       </c>
-      <c r="E9" s="21">
-        <v>2</v>
-      </c>
-      <c r="F9" s="21" t="s">
+      <c r="E9" s="16">
+        <v>2</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="16" t="s">
         <v>71</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="14">
+      <c r="J9" s="11">
         <v>1</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="11">
         <v>3</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="11">
         <v>1</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="11">
         <v>7</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="N9" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="O9" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="O9" s="14" t="s">
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>2</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="16">
+        <v>2</v>
+      </c>
+      <c r="E10" s="16">
+        <v>2</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="11">
+        <v>2</v>
+      </c>
+      <c r="K10" s="11">
+        <v>2</v>
+      </c>
+      <c r="L10" s="11">
+        <v>2</v>
+      </c>
+      <c r="M10" s="11">
+        <v>2</v>
+      </c>
+      <c r="N10" s="32">
+        <v>43983.416666666664</v>
+      </c>
+      <c r="O10" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
-        <v>2</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="21">
-        <v>2</v>
-      </c>
-      <c r="E10" s="21">
-        <v>2</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="14">
-        <v>2</v>
-      </c>
-      <c r="K10" s="14">
-        <v>2</v>
-      </c>
-      <c r="L10" s="14">
-        <v>2</v>
-      </c>
-      <c r="M10" s="14">
-        <v>2</v>
-      </c>
-      <c r="N10" s="42">
-        <v>43983.416666666664</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="12">
         <v>3</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="21">
+      <c r="D11" s="16">
         <v>3</v>
       </c>
-      <c r="E11" s="21">
-        <v>2</v>
-      </c>
-      <c r="F11" s="21" t="s">
+      <c r="E11" s="16">
+        <v>2</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="16" t="s">
         <v>73</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="14">
+      <c r="J11" s="11">
         <v>3</v>
       </c>
-      <c r="K11" s="14">
-        <v>2</v>
-      </c>
-      <c r="L11" s="14">
+      <c r="K11" s="11">
+        <v>2</v>
+      </c>
+      <c r="L11" s="11">
         <v>1</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="11">
         <v>3</v>
       </c>
-      <c r="N11" s="42">
+      <c r="N11" s="32">
         <v>44014.458333333336</v>
       </c>
-      <c r="O11" s="14" t="s">
-        <v>118</v>
+      <c r="O11" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="12">
         <v>4</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="21">
+      <c r="D12" s="16">
         <v>4</v>
       </c>
-      <c r="E12" s="21">
-        <v>2</v>
-      </c>
-      <c r="F12" s="21" t="s">
+      <c r="E12" s="16">
+        <v>2</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="16" t="s">
         <v>74</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="14">
+      <c r="J12" s="11">
         <v>4</v>
       </c>
-      <c r="K12" s="14">
-        <v>2</v>
-      </c>
-      <c r="L12" s="14">
+      <c r="K12" s="11">
+        <v>2</v>
+      </c>
+      <c r="L12" s="11">
         <v>1</v>
       </c>
-      <c r="M12" s="14">
-        <v>2</v>
-      </c>
-      <c r="N12" s="42">
+      <c r="M12" s="11">
+        <v>2</v>
+      </c>
+      <c r="N12" s="32">
         <v>43253.416666666664</v>
       </c>
-      <c r="O12" s="14" t="s">
-        <v>118</v>
+      <c r="O12" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="A13" s="12">
         <v>5</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="21">
+      <c r="D13" s="16">
         <v>5</v>
       </c>
-      <c r="E13" s="21">
-        <v>2</v>
-      </c>
-      <c r="F13" s="21" t="s">
+      <c r="E13" s="16">
+        <v>2</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="16" t="s">
         <v>75</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="14">
+      <c r="J13" s="11">
         <v>5</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="11">
         <v>1</v>
       </c>
-      <c r="L13" s="14">
-        <v>2</v>
-      </c>
-      <c r="M13" s="14">
+      <c r="L13" s="11">
+        <v>2</v>
+      </c>
+      <c r="M13" s="11">
         <v>4</v>
       </c>
-      <c r="N13" s="42">
+      <c r="N13" s="32">
         <v>43648.458333333336</v>
       </c>
-      <c r="O13" s="14" t="s">
+      <c r="O13" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>6</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="16">
+        <v>6</v>
+      </c>
+      <c r="E14" s="16">
+        <v>2</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="11">
+        <v>6</v>
+      </c>
+      <c r="K14" s="11">
+        <v>2</v>
+      </c>
+      <c r="L14" s="11">
+        <v>3</v>
+      </c>
+      <c r="M14" s="11">
+        <v>7</v>
+      </c>
+      <c r="N14" s="32">
+        <v>44046.625</v>
+      </c>
+      <c r="O14" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
-        <v>6</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="21">
-        <v>6</v>
-      </c>
-      <c r="E14" s="21">
-        <v>2</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="14">
-        <v>6</v>
-      </c>
-      <c r="K14" s="14">
-        <v>2</v>
-      </c>
-      <c r="L14" s="14">
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>7</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="16">
+        <v>7</v>
+      </c>
+      <c r="E15" s="16">
+        <v>2</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="11">
+        <v>7</v>
+      </c>
+      <c r="K15" s="11">
+        <v>1</v>
+      </c>
+      <c r="L15" s="11">
         <v>3</v>
       </c>
-      <c r="M14" s="14">
-        <v>7</v>
-      </c>
-      <c r="N14" s="42">
-        <v>44046.625</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
-        <v>7</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="21">
-        <v>7</v>
-      </c>
-      <c r="E15" s="21">
-        <v>2</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="14">
-        <v>7</v>
-      </c>
-      <c r="K15" s="14">
+      <c r="M15" s="11">
+        <v>4</v>
+      </c>
+      <c r="N15" s="32">
+        <v>44077.458333333336</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>8</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="16">
+        <v>8</v>
+      </c>
+      <c r="E16" s="16">
         <v>1</v>
       </c>
-      <c r="L15" s="14">
-        <v>3</v>
-      </c>
-      <c r="M15" s="14">
-        <v>4</v>
-      </c>
-      <c r="N15" s="42">
-        <v>44077.458333333336</v>
-      </c>
-      <c r="O15" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
-        <v>8</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="21">
-        <v>8</v>
-      </c>
-      <c r="E16" s="21">
-        <v>1</v>
-      </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="16" t="s">
         <v>78</v>
       </c>
       <c r="I16" s="1"/>
@@ -1777,352 +1777,352 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="43"/>
+      <c r="O16" s="33"/>
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+      <c r="A17" s="12">
         <v>9</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="21">
+      <c r="D17" s="16">
         <v>9</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="16">
         <v>1</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="16" t="s">
         <v>79</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="35" t="s">
+      <c r="J17" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="A18" s="12">
         <v>10</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="21">
+      <c r="D18" s="16">
         <v>10</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="16">
         <v>1</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="16" t="s">
         <v>80</v>
       </c>
       <c r="I18" s="1"/>
-      <c r="J18" s="36" t="s">
+      <c r="J18" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="36" t="s">
+      <c r="K18" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="L18" s="36" t="s">
+      <c r="L18" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="M18" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="M18" s="36" t="s">
+      <c r="N18" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="N18" s="36" t="s">
+      <c r="O18" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="O18" s="36" t="s">
+      <c r="P18" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>11</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="29">
+        <v>1</v>
+      </c>
+      <c r="K19" s="29">
+        <v>1</v>
+      </c>
+      <c r="L19" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="P18" s="36" t="s">
+      <c r="M19" s="29">
+        <v>94839859000</v>
+      </c>
+      <c r="N19" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O19" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="P19" s="29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>12</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="29">
+        <v>2</v>
+      </c>
+      <c r="K20" s="29">
+        <v>2</v>
+      </c>
+      <c r="L20" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="M20" s="29">
+        <v>73556944057</v>
+      </c>
+      <c r="N20" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="O20" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="P20" s="29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>13</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="29">
+        <v>3</v>
+      </c>
+      <c r="K21" s="29">
+        <v>3</v>
+      </c>
+      <c r="L21" s="30">
+        <v>28773</v>
+      </c>
+      <c r="M21" s="29">
+        <v>16839338002</v>
+      </c>
+      <c r="N21" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="O21" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="P21" s="29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>14</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="21">
+        <v>1</v>
+      </c>
+      <c r="E22" s="22">
+        <v>2</v>
+      </c>
+      <c r="F22" s="22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="22">
+        <v>8</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="28">
+        <v>4</v>
+      </c>
+      <c r="K22" s="28">
+        <v>4</v>
+      </c>
+      <c r="L22" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="M22" s="29">
+        <v>14332654765</v>
+      </c>
+      <c r="N22" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="O22" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="P22" s="29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>15</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="21">
+        <v>2</v>
+      </c>
+      <c r="E23" s="22">
+        <v>17</v>
+      </c>
+      <c r="F23" s="22">
+        <v>1</v>
+      </c>
+      <c r="G23" s="22">
+        <v>9</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="28">
+        <v>5</v>
+      </c>
+      <c r="K23" s="28">
+        <v>5</v>
+      </c>
+      <c r="L23" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="M23" s="29">
+        <v>91305348010</v>
+      </c>
+      <c r="N23" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="O23" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="P23" s="29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
-        <v>11</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="39">
+      <c r="B24" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="24">
+        <v>3</v>
+      </c>
+      <c r="E24" s="25">
+        <v>16</v>
+      </c>
+      <c r="F24" s="25">
         <v>1</v>
       </c>
-      <c r="K19" s="39">
-        <v>1</v>
-      </c>
-      <c r="L19" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="M19" s="39">
-        <v>94839859000</v>
-      </c>
-      <c r="N19" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="O19" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="P19" s="39" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
-        <v>12</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="39">
-        <v>2</v>
-      </c>
-      <c r="K20" s="39">
-        <v>2</v>
-      </c>
-      <c r="L20" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="M20" s="39">
-        <v>73556944057</v>
-      </c>
-      <c r="N20" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="O20" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="P20" s="39" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
-        <v>13</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="39">
-        <v>3</v>
-      </c>
-      <c r="K21" s="39">
-        <v>3</v>
-      </c>
-      <c r="L21" s="40">
-        <v>28773</v>
-      </c>
-      <c r="M21" s="39">
-        <v>16839338002</v>
-      </c>
-      <c r="N21" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="O21" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="P21" s="39" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
-        <v>14</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="29">
-        <v>1</v>
-      </c>
-      <c r="E22" s="30">
-        <v>2</v>
-      </c>
-      <c r="F22" s="30">
-        <v>1</v>
-      </c>
-      <c r="G22" s="30">
-        <v>8</v>
-      </c>
-      <c r="H22" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="37">
-        <v>4</v>
-      </c>
-      <c r="K22" s="37">
-        <v>4</v>
-      </c>
-      <c r="L22" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="M22" s="39">
-        <v>14332654765</v>
-      </c>
-      <c r="N22" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="O22" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="P22" s="39" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
-        <v>15</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="29">
-        <v>2</v>
-      </c>
-      <c r="E23" s="30">
+      <c r="G24" s="25">
+        <v>10</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="28">
+        <v>6</v>
+      </c>
+      <c r="K24" s="28">
+        <v>6</v>
+      </c>
+      <c r="L24" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="M24" s="29">
+        <v>79799299004</v>
+      </c>
+      <c r="N24" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="O24" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="P24" s="29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
         <v>17</v>
       </c>
-      <c r="F23" s="30">
-        <v>1</v>
-      </c>
-      <c r="G23" s="30">
-        <v>9</v>
-      </c>
-      <c r="H23" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="37">
-        <v>5</v>
-      </c>
-      <c r="K23" s="37">
-        <v>5</v>
-      </c>
-      <c r="L23" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="M23" s="39">
-        <v>91305348010</v>
-      </c>
-      <c r="N23" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="O23" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="P23" s="39" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
-        <v>16</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="32">
-        <v>3</v>
-      </c>
-      <c r="E24" s="33">
-        <v>16</v>
-      </c>
-      <c r="F24" s="33">
-        <v>1</v>
-      </c>
-      <c r="G24" s="33">
-        <v>10</v>
-      </c>
-      <c r="H24" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="37">
-        <v>6</v>
-      </c>
-      <c r="K24" s="37">
-        <v>6</v>
-      </c>
-      <c r="L24" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="M24" s="39">
-        <v>79799299004</v>
-      </c>
-      <c r="N24" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="O24" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="P24" s="39" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
-        <v>17</v>
-      </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C25" s="1"/>
@@ -2132,29 +2132,29 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="37">
+      <c r="J25" s="28">
         <v>7</v>
       </c>
-      <c r="K25" s="37">
+      <c r="K25" s="28">
         <v>7</v>
       </c>
-      <c r="L25" s="40">
+      <c r="L25" s="30">
         <v>43223</v>
       </c>
-      <c r="M25" s="39">
+      <c r="M25" s="29">
         <v>13771913039</v>
       </c>
-      <c r="N25" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39" t="s">
-        <v>115</v>
+      <c r="N25" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
